--- a/dependencies/genotype_key.xlsx
+++ b/dependencies/genotype_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\project\diagnostic_virology_laboratory\MKillian\Analysis\results\influenza\HPAI\hpai_genotyping_blast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFADA6-8D12-4B59-8E9B-273519FB46FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355DE35-E1ED-4E5E-B872-C16DC82A65FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAA49906-B332-384E-BAF2-2191212D86DB}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{AAA49906-B332-384E-BAF2-2191212D86DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="82">
   <si>
     <t>PB2</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Minor33</t>
+  </si>
+  <si>
+    <t>Minor34</t>
   </si>
 </sst>
 </file>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402C44A-1D0A-614C-8272-7A375EE4AC45}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1968,6 +1971,35 @@
         <v>31</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
     <sortCondition ref="A2:A39"/>

--- a/dependencies/genotype_key.xlsx
+++ b/dependencies/genotype_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\project\diagnostic_virology_laboratory\MKillian\Analysis\results\influenza\HPAI\hpai_genotyping_blast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1355DE35-E1ED-4E5E-B872-C16DC82A65FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7EB144-2D54-4978-8A5C-2FF9B12EFB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{AAA49906-B332-384E-BAF2-2191212D86DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAA49906-B332-384E-BAF2-2191212D86DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="139">
   <si>
     <t>PB2</t>
   </si>
@@ -156,75 +156,30 @@
     <t>am1.4.2</t>
   </si>
   <si>
-    <t>minor01</t>
-  </si>
-  <si>
-    <t>minor04</t>
-  </si>
-  <si>
-    <t>minor07</t>
-  </si>
-  <si>
-    <t>minor08</t>
-  </si>
-  <si>
     <t>am1.6</t>
   </si>
   <si>
-    <t>minor09</t>
-  </si>
-  <si>
-    <t>minor10</t>
-  </si>
-  <si>
-    <t>minor11</t>
-  </si>
-  <si>
     <t>am2.3.2</t>
   </si>
   <si>
     <t>am1.5</t>
   </si>
   <si>
-    <t>minor12</t>
-  </si>
-  <si>
-    <t>minor13</t>
-  </si>
-  <si>
-    <t>minor14</t>
-  </si>
-  <si>
     <t>am2.3.1</t>
   </si>
   <si>
     <t>am2</t>
   </si>
   <si>
-    <t>minor15</t>
-  </si>
-  <si>
-    <t>minor16</t>
-  </si>
-  <si>
     <t>am3</t>
   </si>
   <si>
-    <t>minor17</t>
-  </si>
-  <si>
     <t>am3.1</t>
   </si>
   <si>
-    <t>minor18</t>
-  </si>
-  <si>
     <t>am3.3</t>
   </si>
   <si>
-    <t>minor19</t>
-  </si>
-  <si>
     <t>am5</t>
   </si>
   <si>
@@ -246,9 +201,6 @@
     <t>am1N4</t>
   </si>
   <si>
-    <t>minor24</t>
-  </si>
-  <si>
     <t>B3.6</t>
   </si>
   <si>
@@ -280,13 +232,232 @@
   </si>
   <si>
     <t>Minor34</t>
+  </si>
+  <si>
+    <t>am2N5</t>
+  </si>
+  <si>
+    <t>am6</t>
+  </si>
+  <si>
+    <t>am7</t>
+  </si>
+  <si>
+    <t>am8</t>
+  </si>
+  <si>
+    <t>am9</t>
+  </si>
+  <si>
+    <t>am10</t>
+  </si>
+  <si>
+    <t>am11</t>
+  </si>
+  <si>
+    <t>am12</t>
+  </si>
+  <si>
+    <t>ea1b</t>
+  </si>
+  <si>
+    <t>am13</t>
+  </si>
+  <si>
+    <t>Minor50</t>
+  </si>
+  <si>
+    <t>Minor51</t>
+  </si>
+  <si>
+    <t>B3.7</t>
+  </si>
+  <si>
+    <t>C1.1</t>
+  </si>
+  <si>
+    <t>Minor52</t>
+  </si>
+  <si>
+    <t>Minor53</t>
+  </si>
+  <si>
+    <t>Minor54</t>
+  </si>
+  <si>
+    <t>Minor01</t>
+  </si>
+  <si>
+    <t>Minor04</t>
+  </si>
+  <si>
+    <t>Minor07</t>
+  </si>
+  <si>
+    <t>Minor08</t>
+  </si>
+  <si>
+    <t>Minor09</t>
+  </si>
+  <si>
+    <t>Minor10</t>
+  </si>
+  <si>
+    <t>Minor11</t>
+  </si>
+  <si>
+    <t>Minor12</t>
+  </si>
+  <si>
+    <t>Minor13</t>
+  </si>
+  <si>
+    <t>Minor14</t>
+  </si>
+  <si>
+    <t>Minor15</t>
+  </si>
+  <si>
+    <t>Minor16</t>
+  </si>
+  <si>
+    <t>Minor17</t>
+  </si>
+  <si>
+    <t>Minor18</t>
+  </si>
+  <si>
+    <t>Minor19</t>
+  </si>
+  <si>
+    <t>Minor24</t>
+  </si>
+  <si>
+    <t>Minor35</t>
+  </si>
+  <si>
+    <t>Minor36</t>
+  </si>
+  <si>
+    <t>Minor37</t>
+  </si>
+  <si>
+    <t>Minor38</t>
+  </si>
+  <si>
+    <t>Minor39</t>
+  </si>
+  <si>
+    <t>Minor40</t>
+  </si>
+  <si>
+    <t>Minor41</t>
+  </si>
+  <si>
+    <t>Minor42</t>
+  </si>
+  <si>
+    <t>Minor43</t>
+  </si>
+  <si>
+    <t>Minor44</t>
+  </si>
+  <si>
+    <t>Minor45</t>
+  </si>
+  <si>
+    <t>Minor46</t>
+  </si>
+  <si>
+    <t>Minor47</t>
+  </si>
+  <si>
+    <t>Minor48</t>
+  </si>
+  <si>
+    <t>Minor55</t>
+  </si>
+  <si>
+    <t>Minor56</t>
+  </si>
+  <si>
+    <t>am16</t>
+  </si>
+  <si>
+    <t>Minor57</t>
+  </si>
+  <si>
+    <t>am17</t>
+  </si>
+  <si>
+    <t>am14</t>
+  </si>
+  <si>
+    <t>Minor58</t>
+  </si>
+  <si>
+    <t>Minor59</t>
+  </si>
+  <si>
+    <t>C2.1</t>
+  </si>
+  <si>
+    <t>Minor60</t>
+  </si>
+  <si>
+    <t>MInor61</t>
+  </si>
+  <si>
+    <t>am15</t>
+  </si>
+  <si>
+    <t>B3.8</t>
+  </si>
+  <si>
+    <t>MInor62</t>
+  </si>
+  <si>
+    <t>Minor63</t>
+  </si>
+  <si>
+    <t>am18</t>
+  </si>
+  <si>
+    <t>Minor64</t>
+  </si>
+  <si>
+    <t>MInor65</t>
+  </si>
+  <si>
+    <t>Minor66</t>
+  </si>
+  <si>
+    <t>Minor67</t>
+  </si>
+  <si>
+    <t>MInor69</t>
+  </si>
+  <si>
+    <t>am3N6</t>
+  </si>
+  <si>
+    <t>am19</t>
+  </si>
+  <si>
+    <t>Minor70</t>
+  </si>
+  <si>
+    <t>Minor71</t>
+  </si>
+  <si>
+    <t>Minor72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +486,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,11 +514,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402C44A-1D0A-614C-8272-7A375EE4AC45}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -860,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>30</v>
@@ -1077,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
@@ -1103,10 +1282,10 @@
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
@@ -1132,10 +1311,10 @@
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -1161,13 +1340,13 @@
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1248,7 +1427,7 @@
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
@@ -1277,7 +1456,7 @@
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>25</v>
@@ -1306,7 +1485,7 @@
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>35</v>
@@ -1335,7 +1514,7 @@
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -1350,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>25</v>
@@ -1364,7 +1543,7 @@
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
@@ -1393,7 +1572,7 @@
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>31</v>
@@ -1408,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>25</v>
@@ -1422,10 +1601,10 @@
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -1437,7 +1616,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>25</v>
@@ -1451,7 +1630,7 @@
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1466,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>25</v>
@@ -1480,7 +1659,7 @@
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>32</v>
@@ -1509,22 +1688,22 @@
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>25</v>
@@ -1538,7 +1717,7 @@
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>35</v>
@@ -1567,13 +1746,13 @@
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>57</v>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>25</v>
@@ -1582,10 +1761,10 @@
         <v>25</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>25</v>
@@ -1596,10 +1775,10 @@
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>25</v>
@@ -1625,13 +1804,13 @@
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>25</v>
@@ -1654,7 +1833,7 @@
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -1683,7 +1862,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1712,7 +1891,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
@@ -1741,7 +1920,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
@@ -1770,7 +1949,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -1799,7 +1978,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -1828,7 +2007,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -1857,7 +2036,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
@@ -1886,7 +2065,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
@@ -1915,13 +2094,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
@@ -1930,7 +2109,7 @@
         <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -1944,13 +2123,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
@@ -1973,30 +2152,1190 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>49</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
         <v>31</v>
       </c>
     </row>

--- a/dependencies/genotype_key.xlsx
+++ b/dependencies/genotype_key.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\project\diagnostic_virology_laboratory\MKillian\Analysis\results\influenza\HPAI\hpai_genotyping_blast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7486A1-5A20-4943-9078-E15723985112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="169">
   <si>
     <t>Genotype</t>
   </si>
@@ -518,13 +537,15 @@
   </si>
   <si>
     <t>am4N1</t>
+  </si>
+  <si>
+    <t>D1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,20 +569,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -574,7 +595,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -606,44 +626,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -654,10 +671,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -695,71 +712,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,7 +804,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -810,11 +827,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -823,13 +840,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -839,7 +856,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -848,7 +865,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -857,7 +874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -865,10 +882,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -933,28 +950,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1157,7 +1169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1447,7 +1459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -1853,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -1940,7 +1952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -1969,2120 +1981,2149 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
         <v>87</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+    <row r="61" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>39</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="4" t="s">
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4" t="s">
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="4" t="s">
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
         <v>96</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="4" t="s">
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
         <v>90</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>43</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>39</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
         <v>39</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>123</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>66</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
         <v>33</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
         <v>33</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>43</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="4" t="s">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="4" t="s">
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
         <v>33</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
-      <c r="A79" s="5" t="s">
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>43</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="4" t="s">
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
         <v>36</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
         <v>96</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>26</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="4" t="s">
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
         <v>95</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
         <v>33</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>43</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
         <v>93</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
-      <c r="A86" s="5" t="s">
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="4" t="s">
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
         <v>93</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>124</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>39</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="4" t="s">
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
         <v>33</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="4" t="s">
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
         <v>33</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>131</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="4" t="s">
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
         <v>39</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="4" t="s">
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
         <v>52</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>95</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="4" t="s">
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
         <v>43</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="4" t="s">
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+    <row r="95" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>119</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="4" t="s">
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
         <v>95</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>39</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="4" t="s">
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
         <v>33</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>43</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="4" t="s">
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
         <v>57</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>39</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="4" t="s">
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
         <v>33</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" t="s">
         <v>153</v>
       </c>
-      <c r="H98" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="4" t="s">
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
         <v>43</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="4" t="s">
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+    <row r="100" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>123</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>66</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>123</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>66</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="4" t="s">
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
         <v>43</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" t="s">
         <v>66</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="4" t="s">
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
         <v>95</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>162</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="7" t="s">
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>101</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>26</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="7" t="s">
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" s="6" t="s">
+      <c r="F108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" t="s">
         <v>14</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
         <v>14</v>
       </c>
     </row>
